--- a/report/reliability/comb/Faculdade de Serviço Social - FSSO-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Serviço Social - FSSO-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1016,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2227,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3395,6 +3395,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3423,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3438,6 +3438,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,14 +3454,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3468,6 +3468,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,20 +3484,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,20 +3513,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3554,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3569,6 +3569,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,14 +3585,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3599,6 +3599,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,20 +3615,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,19 +3644,19 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3683,14 +3684,13 @@
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3699,6 +3699,7 @@
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3714,14 +3715,13 @@
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3729,6 +3729,7 @@
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3744,20 +3745,20 @@
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3773,14 +3774,13 @@
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4122,31 +4122,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.790885982345057</v>
+        <v>0.6807577066804322</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7977876742292483</v>
+        <v>0.7283162732332678</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9354525411749188</v>
+        <v>0.9220819352518596</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.24742699808207652</v>
+        <v>0.18260309379081294</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.9452969604518637</v>
+        <v>2.6807504516404137</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.05217540607593604</v>
+        <v>0.07789444081387153</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.25</v>
+        <v>1.8137254901960784</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8298948669536873</v>
+        <v>0.633339587797869</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.243300684228632</v>
+        <v>0.17849373305926522</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7624792417675889</v>
+        <v>0.6580078125</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.768205718330229</v>
+        <v>0.7144638658684038</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.913973683061297</v>
+        <v>0.9004282837609043</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.23153072875885508</v>
+        <v>0.18531696580858847</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.3141702754542677</v>
+        <v>2.5021837185031233</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.059653674515409406</v>
+        <v>0.0834543977485093</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.07213839141367946</v>
+        <v>0.11778578788176859</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.22549508969444995</v>
+        <v>0.1738723618642905</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4225,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7664121376450418</v>
+        <v>0.6638193915032226</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7723289650135596</v>
+        <v>0.7195408090509577</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9199081263465096</v>
+        <v>0.9031832279924102</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.23570254387774012</v>
+        <v>0.18912430719733372</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.392302253378688</v>
+        <v>2.5655811336262944</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.05879477551783428</v>
+        <v>0.08260402497598347</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.07418900180567138</v>
+        <v>0.11634910862129547</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2470638906444964</v>
+        <v>0.18311510425423994</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4254,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7452516619183286</v>
+        <v>0.65577804825183</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.75447340467366</v>
+        <v>0.652571783711891</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9074348728693034</v>
+        <v>0.8893598786205914</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.21835465485980352</v>
+        <v>0.14584949271319209</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.072878535503889</v>
+        <v>1.8782924158662402</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.06414447588621232</v>
+        <v>0.08515108696074226</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.07297122551526376</v>
+        <v>0.10604269110882711</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.22400768673382912</v>
+        <v>0.16943582117776032</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4283,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.751127226518853</v>
+        <v>0.5712786885245902</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7620609424592397</v>
+        <v>0.6488863627356205</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9147337084896294</v>
+        <v>0.8918337335258469</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.22550247609876348</v>
+        <v>0.14384099905969686</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.202756833348784</v>
+        <v>1.8480807746211967</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.0630448539794885</v>
+        <v>0.10963277527869565</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.07450426050169788</v>
+        <v>0.10584141547570954</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.23953747781276755</v>
+        <v>0.16943582117776032</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4312,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7552611836323495</v>
+        <v>0.5664064467388567</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7659593186347967</v>
+        <v>0.6468219375252127</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.901224888770257</v>
+        <v>0.8886599713383619</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2293012083152175</v>
+        <v>0.14273019616019003</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.272761445432529</v>
+        <v>1.8314329406328507</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.06156021981707739</v>
+        <v>0.11120956845794765</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.07699762519179912</v>
+        <v>0.1055926293398507</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.22400768673382912</v>
+        <v>0.16812842651393464</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4341,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7540098764367197</v>
+        <v>0.681563614090745</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.764762412180279</v>
+        <v>0.7424880725415814</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8988208932247596</v>
+        <v>0.9201814239294571</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.22812549665270265</v>
+        <v>0.2076820423363185</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.251021315379112</v>
+        <v>2.8833152695867788</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.06184602233062114</v>
+        <v>0.07886634172244357</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.07667302864384457</v>
+        <v>0.10215198912508296</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.21551712079779775</v>
+        <v>0.2294624973176455</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4370,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7992120095580323</v>
+        <v>0.6919971908233564</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8118711059154231</v>
+        <v>0.7358092321121151</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9219601721395655</v>
+        <v>0.9127501106983276</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.28177358209590303</v>
+        <v>0.20203950703622223</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.315504589903297</v>
+        <v>2.785143621764904</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.04965778925888113</v>
+        <v>0.0723312105798872</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.06957048868851298</v>
+        <v>0.10682291940860159</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.27684594341248286</v>
+        <v>0.2294624973176455</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4399,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.822429906542056</v>
+        <v>0.7445545802669524</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8194115845584774</v>
+        <v>0.7546579222727906</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9218125559029189</v>
+        <v>0.9183672899891695</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2920332912779324</v>
+        <v>0.21852475297519502</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.5374537594512265</v>
+        <v>3.0759416781000697</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.0434461044638765</v>
+        <v>0.05808958309461802</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.06148979626232447</v>
+        <v>0.09961363016809804</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.27684594341248286</v>
+        <v>0.2294624973176455</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4428,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7812476313196393</v>
+        <v>0.6590662901994211</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7886820117290664</v>
+        <v>0.7197027259635682</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9383002988593006</v>
+        <v>0.9219905175779216</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2533364731377784</v>
+        <v>0.18924740593713055</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.732204807467152</v>
+        <v>2.567640832175999</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.05504185950377326</v>
+        <v>0.08354501383265399</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.08451838980749944</v>
+        <v>0.12556456725185627</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.22400768673382912</v>
+        <v>0.17241379310344826</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4457,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7922819611749009</v>
+        <v>0.6821779761489644</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.797871845035621</v>
+        <v>0.7346782088564594</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9409515061415685</v>
+        <v>0.9309343399190038</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.26408391006448584</v>
+        <v>0.20110440347857406</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.9473562956938375</v>
+        <v>2.769008175657138</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.052473820241915</v>
+        <v>0.07824700484328066</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.08122648459098272</v>
+        <v>0.12092340966266442</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2620533744233057</v>
+        <v>0.1738723618642905</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4486,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7774399129539317</v>
+        <v>0.6468065354623097</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7832038976021204</v>
+        <v>0.7064569031213256</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9234952947145572</v>
+        <v>0.9057986125027421</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2472264941626259</v>
+        <v>0.17951195402091358</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.6126290507046512</v>
+        <v>2.406654800038831</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.055533454801218615</v>
+        <v>0.0864293075059574</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.07775699437417949</v>
+        <v>0.11763524496711822</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.22549508969444995</v>
+        <v>0.17241379310344826</v>
       </c>
     </row>
     <row r="22">
@@ -4515,28 +4515,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7889641063790218</v>
+        <v>0.6607769691780823</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7962610712735828</v>
+        <v>0.7157407924541901</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9237978252220309</v>
+        <v>0.9018468979724301</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2621531176831102</v>
+        <v>0.18626509876640024</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.908242161922873</v>
+        <v>2.5179159494379584</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05300563167191189</v>
+        <v>0.08345166886814627</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.07229283481213482</v>
+        <v>0.11447303257002742</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.25238160614040545</v>
+        <v>0.18311510425423994</v>
       </c>
     </row>
     <row r="23">
@@ -4583,25 +4583,25 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.6714091992890453</v>
+        <v>0.48194965658386385</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.6877302326997201</v>
+        <v>0.4758775468169048</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.6838820620178461</v>
+        <v>0.4503207148881542</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.5862233624536529</v>
+        <v>0.34142573614975824</v>
       </c>
       <c r="G27" t="n" s="89">
-        <v>3.2</v>
+        <v>3.2941176470588234</v>
       </c>
       <c r="H27" t="n" s="90">
-        <v>1.3460180927024543</v>
+        <v>1.2438798481560995</v>
       </c>
     </row>
     <row r="28">
@@ -4609,25 +4609,25 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6367228867493958</v>
+        <v>0.43762991307128557</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6533960577948245</v>
+        <v>0.4410270314645047</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6401068368307488</v>
+        <v>0.4125972049259823</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.548162821882971</v>
+        <v>0.3036048441391973</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.7714285714285714</v>
+        <v>3.8823529411764706</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.3080230769171846</v>
+        <v>1.1485090699593827</v>
       </c>
     </row>
     <row r="29">
@@ -4635,25 +4635,25 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.801233065554221</v>
+        <v>0.8116187383755111</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7961697519300859</v>
+        <v>0.837143227141107</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.8065737915131466</v>
+        <v>0.8703473887301284</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.7375679875679877</v>
+        <v>0.7945036889617826</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.1142857142857143</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.4707226829297335</v>
+        <v>0.35949062795357095</v>
       </c>
     </row>
     <row r="30">
@@ -4661,25 +4661,25 @@
         <v>21</v>
       </c>
       <c r="B30" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.743306670358226</v>
+        <v>0.8345398082122258</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.7373429493001151</v>
+        <v>0.8555279822127824</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.7400009219899507</v>
+        <v>0.8898383576167676</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.6491929233938158</v>
+        <v>0.7451059885247822</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.6285714285714286</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.7164552098423536</v>
+        <v>1.6646154935999415</v>
       </c>
     </row>
     <row r="31">
@@ -4687,25 +4687,25 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7168117486243882</v>
+        <v>0.8468857861225454</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.706079258887235</v>
+        <v>0.8656957212070285</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.7275819776882584</v>
+        <v>0.8990758110934186</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.620519247238303</v>
+        <v>0.7618677035607394</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6571428571428571</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.6439346119609994</v>
+        <v>1.6827212490900083</v>
       </c>
     </row>
     <row r="32">
@@ -4713,25 +4713,25 @@
         <v>23</v>
       </c>
       <c r="B32" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7251312516814756</v>
+        <v>0.20877652434096747</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.7157554043318824</v>
+        <v>0.27115872512381584</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7377634000772675</v>
+        <v>0.24023453336112338</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6297589654643544</v>
+        <v>0.16290842374519768</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.6571428571428571</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6617293816428491</v>
+        <v>0.35949062795357095</v>
       </c>
     </row>
     <row r="33">
@@ -4739,25 +4739,25 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.31735592955941266</v>
+        <v>0.3020907630547179</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.2742299060945819</v>
+        <v>0.3228076956321501</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.2501585991243509</v>
+        <v>0.3051234434727159</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.17897940335402213</v>
+        <v>0.12337514589119628</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.5142857142857142</v>
+        <v>2.588235294117647</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4424535586657767</v>
+        <v>1.395178864580138</v>
       </c>
     </row>
     <row r="34">
@@ -4765,25 +4765,25 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.24014806670298147</v>
+        <v>0.16474422551436074</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.18979216389106202</v>
+        <v>0.17190992786628176</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.16598178889373666</v>
+        <v>0.14107682721520814</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.050143971506384506</v>
+        <v>-0.08017778546927172</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.1142857142857143</v>
+        <v>3.2058823529411766</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.9062039359360665</v>
+        <v>1.855040827202527</v>
       </c>
     </row>
     <row r="35">
@@ -4791,25 +4791,25 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4824577720613519</v>
+        <v>0.4771956823702907</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5082682431095655</v>
+        <v>0.4399002466340634</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.43161702776287225</v>
+        <v>0.37510506836741636</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3769261219656601</v>
+        <v>0.33348780009076995</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>0.8857142857142857</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.2549063375273817</v>
+        <v>1.2641357584081998</v>
       </c>
     </row>
     <row r="36">
@@ -4817,25 +4817,25 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4010212648567858</v>
+        <v>0.3879121345303415</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.41981648561185403</v>
+        <v>0.33136716996461674</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3415758781922242</v>
+        <v>0.24215697413589507</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.26343491742719194</v>
+        <v>0.20025252596706022</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.9142857142857144</v>
+        <v>1.9411764705882353</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.5023790657297036</v>
+        <v>1.5163987736218039</v>
       </c>
     </row>
     <row r="37">
@@ -4843,25 +4843,25 @@
         <v>28</v>
       </c>
       <c r="B37" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5298423763371929</v>
+        <v>0.5525765759321107</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5585535699565007</v>
+        <v>0.5290137465349709</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5303105551621486</v>
+        <v>0.4997062793075604</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4187089838940317</v>
+        <v>0.40514082421911235</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.9714285714285715</v>
+        <v>2.0</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.382361880893675</v>
+        <v>1.3926212476455828</v>
       </c>
     </row>
     <row r="38">
@@ -4869,25 +4869,25 @@
         <v>29</v>
       </c>
       <c r="B38" t="n" s="84">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.4027785551347828</v>
+        <v>0.4733473007784015</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.4357069700743843</v>
+        <v>0.4671988078154556</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.4080104780494603</v>
+        <v>0.444208128356121</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.28388054633134685</v>
+        <v>0.3209955176894771</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>1.5714285714285714</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.31251250494243</v>
+        <v>1.3284223283101428</v>
       </c>
     </row>
     <row r="39">
@@ -4934,22 +4934,22 @@
         <v>18</v>
       </c>
       <c r="B43" t="n" s="109">
-        <v>0.02857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n" s="110">
-        <v>0.17142857142857143</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="D43" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E43" t="n" s="112">
-        <v>0.2857142857142857</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="F43" t="n" s="113">
-        <v>0.4</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="G43" t="n" s="114">
-        <v>0.11428571428571428</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="H43" t="n" s="115">
         <v>0.0</v>
@@ -4960,22 +4960,22 @@
         <v>19</v>
       </c>
       <c r="B44" t="n" s="109">
-        <v>0.02857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n" s="110">
-        <v>0.02857142857142857</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="D44" t="n" s="111">
-        <v>0.11428571428571428</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E44" t="n" s="112">
-        <v>0.17142857142857143</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="F44" t="n" s="113">
-        <v>0.2857142857142857</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="G44" t="n" s="114">
-        <v>0.37142857142857144</v>
+        <v>0.38235294117647056</v>
       </c>
       <c r="H44" t="n" s="115">
         <v>0.0</v>
@@ -4986,22 +4986,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.11428571428571428</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.05714285714285714</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3142857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.37142857142857144</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.11428571428571428</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5012,22 +5012,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.11428571428571428</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.02857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05714285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.11428571428571428</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4857142857142857</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5038,7 +5038,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8571428571428571</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.0</v>
@@ -5047,13 +5047,13 @@
         <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.0</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.05714285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.08571428571428572</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5064,22 +5064,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.8571428571428571</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.02857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
         <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.11428571428571428</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5090,19 +5090,19 @@
         <v>24</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.17142857142857143</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.11428571428571428</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="D49" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.45714285714285713</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2571428571428571</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="G49" t="n" s="114">
         <v>0.0</v>
@@ -5116,22 +5116,22 @@
         <v>25</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.17142857142857143</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.08571428571428572</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.05714285714285714</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.2</v>
+        <v>0.20588235294117646</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.11428571428571428</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.37142857142857144</v>
+        <v>0.38235294117647056</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5142,19 +5142,19 @@
         <v>26</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.11428571428571428</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.11428571428571428</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.14285714285714285</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.02857142857142857</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5168,19 +5168,19 @@
         <v>27</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2571428571428571</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.2</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.08571428571428572</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.2857142857142857</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.17142857142857143</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="G52" t="n" s="114">
         <v>0.0</v>
@@ -5194,19 +5194,19 @@
         <v>28</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.22857142857142856</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.08571428571428572</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.34285714285714286</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.17142857142857143</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.17142857142857143</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -5220,19 +5220,19 @@
         <v>29</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.3142857142857143</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.11428571428571428</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.34285714285714286</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.14285714285714285</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.08571428571428572</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -5317,31 +5317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.9121771217712178</v>
+        <v>0.8702095710648301</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.9159412332425172</v>
+        <v>0.9961240395404594</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9377074971930885</v>
+        <v>0.9952155269921366</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.7314794514504283</v>
+        <v>0.9884615636673585</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>10.896439105335574</v>
+        <v>257.00056797238534</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.0250165080888341</v>
+        <v>0.0025342819192059876</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.4285714285714284</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.3068983102281948</v>
+        <v>1.2315985615593323</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6865015575927784</v>
+        <v>0.9892401932287609</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5388,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8862673926194797</v>
+        <v>0.9945617402431222</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8870185970212205</v>
+        <v>0.9945909966992097</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8729429356031156</v>
+        <v>0.9892401932287609</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.7235281467845182</v>
+        <v>0.9892401932287609</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>7.851014181403137</v>
+        <v>183.87694393787686</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.032329944289809</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.024167134638204447</v>
-      </c>
+        <v>0.0018602287794258006</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6422771044623379</v>
+        <v>0.9892401932287609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.9016274338854983</v>
+        <v>0.5730240549828176</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.9040963179044103</v>
+        <v>0.9912886491565902</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8901280486537835</v>
+        <v>0.9827277628310099</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.7585926594084906</v>
+        <v>0.98272776283101</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>9.42712832447115</v>
+        <v>113.79275923739274</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.02854978868515436</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.016468694556728926</v>
-      </c>
+        <v>0.012092266616898797</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7161210389136721</v>
+        <v>0.9827277628310099</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8684642310216584</v>
+        <v>0.5815170008718393</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.882622610101963</v>
+        <v>0.9966974968443385</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.8521695133182728</v>
+        <v>0.9934167349423043</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.714816111299227</v>
+        <v>0.9934167349423044</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>7.519528342457404</v>
+        <v>301.8006190654711</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.03960272007708253</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.01282073729036846</v>
-      </c>
+        <v>0.007439609082919276</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6568820762718849</v>
+        <v>0.9934167349423044</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8866191224465129</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8897382724708914</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8646299561043826</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.7289808883094772</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>8.069330060478189</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.034498548512542214</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012197281430316948</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.7161210389136721</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,283 +5478,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>34.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9924241333106317</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9958858823289743</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9938749979046443</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9907118233001033</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.35949062795357095</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8861439128767545</v>
+        <v>0.9977155187094318</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.900322762584277</v>
+        <v>0.9980650901925787</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8666040077224633</v>
+        <v>0.9977101360145566</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.8049417480812981</v>
+        <v>0.9924648601186213</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.2</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.3460180927024543</v>
+        <v>1.6646154935999415</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8547379345659506</v>
+        <v>0.996728246021777</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8708946905740728</v>
+        <v>0.9944883161380222</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8245867978986914</v>
+        <v>0.9896965295531548</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7586998081137729</v>
+        <v>0.989035029383746</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.7714285714285714</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.3080230769171846</v>
+        <v>1.6827212490900083</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>35.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.9186671310073138</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.9076343830355856</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8937974612156389</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.849969151438464</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.1142857142857143</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.4707226829297335</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>35.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.912174090941231</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8957465213009511</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8764847110709364</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.8184917985749778</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.6285714285714286</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.7164552098423536</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.02857142857142857</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.17142857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.2857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.2</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5814,7 +5715,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
+      <c r="A1" t="s" s="231">
         <v>45</v>
       </c>
     </row>
@@ -5829,66 +5730,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.8577187972450864</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.8765610047152024</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.7802479782117495</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.7802479782117495</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>7.101167687672826</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.04383880507413941</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.8142857142857145</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.581537386280097</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.7802479782117496</v>
+      <c r="A6" t="n" s="260">
+        <v>0.7614540248170537</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.9031749975052535</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.8628663770105233</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.7566497664557912</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>9.327910913859869</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.03481580642416175</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.215686274509804</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>1.1157952364591328</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.7596775464273456</v>
       </c>
     </row>
     <row r="7">
@@ -5902,86 +5803,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="287">
+        <v>0.8438366644353066</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.8634281297385544</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.7596775464273456</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.7596775464273455</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>6.3221520514118685</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.048954531856223886</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
+        <v>0.7596775464273456</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
-        <v>0.7802479782117496</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7802479782117496</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.6087869075035227</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.7802479782117496</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7802479782117496</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.7802479782117496</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="B12" t="n" s="287">
+        <v>0.4277864992150706</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.8428522107806988</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.7283876948417716</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.7283876948417716</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>5.363436641189342</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.05220346967654896</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.7283876948417716</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.6087869075035227</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.7802479782117496</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.6087869075035227</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.7802479782117496</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="287">
+        <v>0.5484574633842318</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.8775925173635981</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.7818840580982565</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.7818840580982562</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>7.169435221295994</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.05039574777666927</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.7818840580982563</v>
       </c>
     </row>
     <row r="14">
@@ -5990,174 +5921,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="298">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="313">
+        <v>34.0</v>
+      </c>
+      <c r="C18" t="n" s="314">
+        <v>0.8369360138210384</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.9141931999573308</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.8485348183712249</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.7999239048006527</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.35949062795357095</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
-        <v>35.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9262396675396387</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9434638250117886</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8333771312302949</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7802479782117497</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.5142857142857142</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.4424535586657767</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+      <c r="B19" t="n" s="313">
+        <v>34.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.9217616335938849</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.9255883684340918</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.8742538702623524</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.7931381010500492</v>
+      </c>
+      <c r="G19" t="n" s="318">
+        <v>2.588235294117647</v>
+      </c>
+      <c r="H19" t="n" s="319">
+        <v>1.395178864580138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="308">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>35.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9584583440926826</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9434638250117886</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.8333771312302949</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.7802479782117497</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>3.1142857142857143</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.9062039359360665</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B20" t="n" s="313">
+        <v>34.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.949031784651207</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.9061060110143236</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.8278827890202919</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.781548314884812</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>3.2058823529411766</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.855040827202527</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="323">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="337">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="337">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="337">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="337">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="337">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="337">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="C23" t="n" s="340">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="D23" t="n" s="341">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="342">
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="F23" t="n" s="343">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="G23" t="n" s="344">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="B26" t="n" s="338">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="C26" t="n" s="339">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="D26" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="341">
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="F26" t="n" s="342">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="G26" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="C24" t="n" s="340">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="D24" t="n" s="341">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="E24" t="n" s="342">
-        <v>0.2</v>
-      </c>
-      <c r="F24" t="n" s="343">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="G24" t="n" s="344">
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="H24" t="n" s="345">
+      <c r="B27" t="n" s="338">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="C27" t="n" s="339">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="D27" t="n" s="340">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="E27" t="n" s="341">
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="F27" t="n" s="342">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G27" t="n" s="343">
+        <v>0.38235294117647056</v>
+      </c>
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,7 +6175,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
+      <c r="A1" t="s" s="346">
         <v>46</v>
       </c>
     </row>
@@ -6202,66 +6190,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.890428534770336</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8910923303047003</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.8035766679741246</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.8035766679741247</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>8.18208977198562</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.03690203395931572</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>1.7714285714285714</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.279607345236496</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.8035766679741247</v>
+      <c r="A6" t="n" s="375">
+        <v>0.8933241569167241</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.8948954971367673</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.8097835949615338</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.809783594961534</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>8.514340230515632</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.036255257631650634</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>3.588235294117647</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>1.13798458366358</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.809783594961534</v>
       </c>
     </row>
     <row r="7">
@@ -6275,81 +6263,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.8035766679741246</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.8035766679741246</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.6457354613123963</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.8035766679741246</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8035766679741246</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.8035766679741246</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.809783594961534</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.809783594961534</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.6557494706688254</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.809783594961534</v>
+      </c>
+      <c r="F11" s="406"/>
+      <c r="G11" s="407"/>
+      <c r="H11" t="n" s="408">
+        <v>0.809783594961534</v>
+      </c>
+      <c r="I11" t="n" s="409">
+        <v>0.809783594961534</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.6457354613123963</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.8035766679741246</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6457354613123963</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.8035766679741246</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.6557494706688254</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.809783594961534</v>
+      </c>
+      <c r="D12" s="404"/>
+      <c r="E12" s="405"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="407"/>
+      <c r="H12" t="n" s="408">
+        <v>0.6557494706688254</v>
+      </c>
+      <c r="I12" t="n" s="409">
+        <v>0.809783594961534</v>
       </c>
     </row>
     <row r="13">
@@ -6363,84 +6351,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
+      <c r="A15" t="s" s="413">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="B16" t="s" s="427">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+      <c r="C16" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="D16" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="E16" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="F16" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="G16" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H16" t="s" s="427">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>35.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9522711460519431</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9496253650714382</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8512673285421334</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8035766679741247</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.9714285714285715</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.382361880893675</v>
+      <c r="A17" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="428">
+        <v>34.0</v>
+      </c>
+      <c r="C17" t="n" s="429">
+        <v>0.9551639287920305</v>
+      </c>
+      <c r="D17" t="n" s="430">
+        <v>0.9512580078405475</v>
+      </c>
+      <c r="E17" t="n" s="431">
+        <v>0.8560178344025197</v>
+      </c>
+      <c r="F17" t="n" s="432">
+        <v>0.809783594961534</v>
+      </c>
+      <c r="G17" t="n" s="433">
+        <v>3.2941176470588234</v>
+      </c>
+      <c r="H17" t="n" s="434">
+        <v>1.2438798481560995</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
-        <v>35.0</v>
-      </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9469101080681638</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9496253650714381</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8512673285421334</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.8035766679741249</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.31251250494243</v>
+      <c r="A18" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="428">
+        <v>34.0</v>
+      </c>
+      <c r="C18" t="n" s="429">
+        <v>0.9471932203858155</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.9512580078405475</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.8560178344025198</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.809783594961534</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>3.8823529411764706</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>1.1485090699593827</v>
       </c>
     </row>
     <row r="19">
@@ -6454,74 +6442,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="439">
+      <c r="A21" t="s" s="438">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="453">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="453">
+      <c r="B22" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C22" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D22" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E22" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F22" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="452">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="A23" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="453">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="C23" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n" s="455">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="E23" t="n" s="456">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="F23" t="n" s="457">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G23" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="A24" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="453">
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="C24" t="n" s="454">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="D24" t="n" s="455">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="E24" t="n" s="456">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="F24" t="n" s="457">
+        <v>0.38235294117647056</v>
+      </c>
+      <c r="G24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6551,7 +6539,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
+      <c r="A1" t="s" s="460">
         <v>47</v>
       </c>
     </row>
@@ -6566,66 +6554,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9945879078398021</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9946168849234884</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.989291415390238</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9892914153902379</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>184.76604545635024</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0018246633304451478</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.6484013136236888</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9892914153902379</v>
+      <c r="A6" t="n" s="489">
+        <v>0.5886719380345329</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.5955335276885798</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.42402829788344654</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.4240282978834462</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>1.4723928148735326</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.13829073575895978</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>1.4264705882352942</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.1750715835137286</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.4240282978834462</v>
       </c>
     </row>
     <row r="7">
@@ -6639,81 +6627,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9892914153902379</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9892914153902379</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9786975045648204</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9892914153902379</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9892914153902379</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9892914153902379</v>
+      <c r="A11" t="s" s="511">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.42402829788344626</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.42402829788344626</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.17979999740593322</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.42402829788344626</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.42402829788344626</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.42402829788344626</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9786975045648204</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9892914153902379</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9786975045648204</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9892914153902379</v>
+      <c r="A12" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.17979999740593322</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.42402829788344626</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.17979999740593322</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.42402829788344626</v>
       </c>
     </row>
     <row r="13">
@@ -6727,84 +6715,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
+      <c r="A15" t="s" s="527">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
+      <c r="B16" t="s" s="541">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="542">
+      <c r="C16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="D16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="E16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="F16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
-        <v>35.0</v>
-      </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9972902826358041</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9973192606658706</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9919649489662068</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9892914153902381</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.6439346119609994</v>
+      <c r="A17" t="s" s="537">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n" s="542">
+        <v>34.0</v>
+      </c>
+      <c r="C17" t="n" s="543">
+        <v>0.8114959871622652</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.8438093083995478</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.5494671488312015</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.42402829788344637</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.2641357584081998</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
-        <v>35.0</v>
-      </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9973480831226075</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9973192606658706</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9919649489662068</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9892914153902381</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6617293816428491</v>
+      <c r="A18" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n" s="542">
+        <v>34.0</v>
+      </c>
+      <c r="C18" t="n" s="543">
+        <v>0.8733204582379612</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.8438093083995478</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.5494671488312013</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.42402829788344637</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>1.9411764705882353</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>1.5163987736218039</v>
       </c>
     </row>
     <row r="19">
@@ -6818,65 +6806,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
+      <c r="A21" t="s" s="552">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
+      <c r="B22" t="s" s="566">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="567">
+      <c r="C22" t="s" s="566">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="566">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="F22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s" s="567">
+      <c r="G22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="F23" t="n" s="572">
+      <c r="A23" t="s" s="562">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="G23" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="F24" t="n" s="572">
+      <c r="A24" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n" s="567">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="C24" t="n" s="568">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="D24" t="n" s="569">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="E24" t="n" s="570">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="F24" t="n" s="571">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6956,31 +6953,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="603">
-        <v>0.5960591133004927</v>
+        <v>0.8899572649572649</v>
       </c>
       <c r="B6" t="n" s="604">
-        <v>0.6028221987416706</v>
+        <v>0.8905072107664522</v>
       </c>
       <c r="C6" t="n" s="605">
-        <v>0.43145704018397346</v>
+        <v>0.8026255054632901</v>
       </c>
       <c r="D6" t="n" s="606">
-        <v>0.43145704018397346</v>
+        <v>0.8026255054632903</v>
       </c>
       <c r="E6" t="n" s="607">
-        <v>1.5177640765214562</v>
+        <v>8.133021516759449</v>
       </c>
       <c r="F6" t="n" s="608">
-        <v>0.13388978989896533</v>
+        <v>0.03762666241301796</v>
       </c>
       <c r="G6" t="n" s="609">
-        <v>1.4</v>
+        <v>1.7941176470588236</v>
       </c>
       <c r="H6" t="n" s="610">
-        <v>1.1682062670406033</v>
+        <v>1.2916846356061384</v>
       </c>
       <c r="I6" t="n" s="611">
-        <v>0.4314570401839734</v>
+        <v>0.8026255054632901</v>
       </c>
     </row>
     <row r="7">
@@ -7027,48 +7024,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="625">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n" s="630">
-        <v>0.43145704018397335</v>
+        <v>0.8026255054632901</v>
       </c>
       <c r="C11" t="n" s="631">
-        <v>0.43145704018397335</v>
+        <v>0.8026255054632901</v>
       </c>
       <c r="D11" t="n" s="632">
-        <v>0.18615517752431487</v>
+        <v>0.6442077020202018</v>
       </c>
       <c r="E11" t="n" s="633">
-        <v>0.43145704018397335</v>
+        <v>0.8026255054632901</v>
       </c>
       <c r="F11" s="634"/>
       <c r="G11" s="635"/>
       <c r="H11" t="n" s="636">
-        <v>0.43145704018397335</v>
+        <v>0.8026255054632901</v>
       </c>
       <c r="I11" t="n" s="637">
-        <v>0.43145704018397335</v>
+        <v>0.8026255054632901</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="625">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n" s="630">
-        <v>0.18615517752431487</v>
+        <v>0.6442077020202018</v>
       </c>
       <c r="C12" t="n" s="631">
-        <v>0.43145704018397335</v>
+        <v>0.8026255054632901</v>
       </c>
       <c r="D12" s="632"/>
       <c r="E12" s="633"/>
       <c r="F12" s="634"/>
       <c r="G12" s="635"/>
       <c r="H12" t="n" s="636">
-        <v>0.18615517752431487</v>
+        <v>0.6442077020202018</v>
       </c>
       <c r="I12" t="n" s="637">
-        <v>0.43145704018397335</v>
+        <v>0.8026255054632901</v>
       </c>
     </row>
     <row r="13">
@@ -7112,54 +7109,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="651">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n" s="656">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C17" t="n" s="657">
-        <v>0.814547232006647</v>
+        <v>0.9517984586153991</v>
       </c>
       <c r="D17" t="n" s="658">
-        <v>0.8460073995491922</v>
+        <v>0.9493749273767689</v>
       </c>
       <c r="E17" t="n" s="659">
-        <v>0.5557032561125984</v>
+        <v>0.850539007771981</v>
       </c>
       <c r="F17" t="n" s="660">
-        <v>0.4314570401839733</v>
+        <v>0.8026255054632903</v>
       </c>
       <c r="G17" t="n" s="661">
-        <v>0.8857142857142857</v>
+        <v>2.0</v>
       </c>
       <c r="H17" t="n" s="662">
-        <v>1.2549063375273817</v>
+        <v>1.3926212476455828</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="651">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n" s="656">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C18" t="n" s="657">
-        <v>0.8747672810405926</v>
+        <v>0.9468935348807874</v>
       </c>
       <c r="D18" t="n" s="658">
-        <v>0.8460073995491922</v>
+        <v>0.9493749273767689</v>
       </c>
       <c r="E18" t="n" s="659">
-        <v>0.5557032561125984</v>
+        <v>0.850539007771981</v>
       </c>
       <c r="F18" t="n" s="660">
-        <v>0.4314570401839732</v>
+        <v>0.8026255054632903</v>
       </c>
       <c r="G18" t="n" s="661">
-        <v>1.9142857142857144</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="H18" t="n" s="662">
-        <v>1.5023790657297036</v>
+        <v>1.3284223283101428</v>
       </c>
     </row>
     <row r="19">
@@ -7200,22 +7197,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="676">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n" s="681">
-        <v>0.6</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="C23" t="n" s="682">
-        <v>0.11428571428571428</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="D23" t="n" s="683">
-        <v>0.11428571428571428</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="E23" t="n" s="684">
-        <v>0.14285714285714285</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="F23" t="n" s="685">
-        <v>0.02857142857142857</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="G23" t="n" s="686">
         <v>0.0</v>
@@ -7223,22 +7220,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="676">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n" s="681">
-        <v>0.2571428571428571</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="C24" t="n" s="682">
-        <v>0.2</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D24" t="n" s="683">
-        <v>0.08571428571428572</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="E24" t="n" s="684">
-        <v>0.2857142857142857</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="F24" t="n" s="685">
-        <v>0.17142857142857143</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="G24" t="n" s="686">
         <v>0.0</v>
@@ -7320,31 +7317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="717">
-        <v>0.847691148358271</v>
+        <v>0.8039952904238619</v>
       </c>
       <c r="B6" t="n" s="718">
-        <v>0.8466797668812913</v>
+        <v>0.831008533107003</v>
       </c>
       <c r="C6" t="n" s="719">
-        <v>0.9359076642396352</v>
+        <v>0.9267333615175053</v>
       </c>
       <c r="D6" t="n" s="720">
-        <v>0.3557654253412366</v>
+        <v>0.3533302096695981</v>
       </c>
       <c r="E6" t="n" s="721">
-        <v>5.5222963705367345</v>
+        <v>4.9174585461950295</v>
       </c>
       <c r="F6" t="n" s="722">
-        <v>0.039007523820355314</v>
+        <v>0.048441767211160995</v>
       </c>
       <c r="G6" t="n" s="723">
-        <v>2.137142857142857</v>
+        <v>1.6797385620915033</v>
       </c>
       <c r="H6" t="n" s="724">
-        <v>0.9536572680339356</v>
+        <v>0.8372030045595341</v>
       </c>
       <c r="I6" t="n" s="725">
-        <v>0.3099408895280765</v>
+        <v>0.29687505954419297</v>
       </c>
     </row>
     <row r="7">
@@ -7391,292 +7388,268 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="739">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="744">
-        <v>0.827234948307318</v>
+        <v>0.7935232476757168</v>
       </c>
       <c r="C11" t="n" s="745">
-        <v>0.8251551154061012</v>
+        <v>0.7895737059034674</v>
       </c>
       <c r="D11" t="n" s="746">
-        <v>0.9149953379140403</v>
+        <v>0.8971772089948999</v>
       </c>
       <c r="E11" t="n" s="747">
-        <v>0.3439924932034723</v>
+        <v>0.3192797394441277</v>
       </c>
       <c r="F11" t="n" s="748">
-        <v>4.7193552005975885</v>
+        <v>3.7522578121404013</v>
       </c>
       <c r="G11" t="n" s="749">
-        <v>0.04432504334881548</v>
+        <v>0.053315361611017235</v>
       </c>
       <c r="H11" t="n" s="750">
-        <v>0.043450885105928774</v>
+        <v>0.048389412408120204</v>
       </c>
       <c r="I11" t="n" s="751">
-        <v>0.2956055518413595</v>
+        <v>0.27255929982643456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="739">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="744">
-        <v>0.830523358893666</v>
+        <v>0.7509810232552091</v>
       </c>
       <c r="C12" t="n" s="745">
-        <v>0.8287551311871022</v>
+        <v>0.7877517643268368</v>
       </c>
       <c r="D12" t="n" s="746">
-        <v>0.9195307773096084</v>
+        <v>0.8956624299128502</v>
       </c>
       <c r="E12" t="n" s="747">
-        <v>0.34969176618487147</v>
+        <v>0.31690865060440376</v>
       </c>
       <c r="F12" t="n" s="748">
-        <v>4.839591030856524</v>
+        <v>3.711464370143837</v>
       </c>
       <c r="G12" t="n" s="749">
-        <v>0.04371427951391724</v>
+        <v>0.06322276520604439</v>
       </c>
       <c r="H12" t="n" s="750">
-        <v>0.045638735280189316</v>
+        <v>0.0485537223360503</v>
       </c>
       <c r="I12" t="n" s="751">
-        <v>0.3088198240104121</v>
+        <v>0.2687916467556376</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="739">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="744">
-        <v>0.81923905620835</v>
+        <v>0.7478594636232262</v>
       </c>
       <c r="C13" t="n" s="745">
-        <v>0.8187065850986084</v>
+        <v>0.7861485529261306</v>
       </c>
       <c r="D13" t="n" s="746">
-        <v>0.9089751151452278</v>
+        <v>0.8996282326823601</v>
       </c>
       <c r="E13" t="n" s="747">
-        <v>0.33411858746709583</v>
+        <v>0.31484225303916746</v>
       </c>
       <c r="F13" t="n" s="748">
-        <v>4.515920148252028</v>
+        <v>3.6761432465527166</v>
       </c>
       <c r="G13" t="n" s="749">
-        <v>0.046448188213279895</v>
+        <v>0.06429117168760798</v>
       </c>
       <c r="H13" t="n" s="750">
-        <v>0.044059493501314176</v>
+        <v>0.04907987847641988</v>
       </c>
       <c r="I13" t="n" s="751">
-        <v>0.2827805659686935</v>
+        <v>0.2702659209080599</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="739">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="744">
-        <v>0.8264161794306527</v>
+        <v>0.7919836942022644</v>
       </c>
       <c r="C14" t="n" s="745">
-        <v>0.8248402349159366</v>
+        <v>0.8233527748097933</v>
       </c>
       <c r="D14" t="n" s="746">
-        <v>0.9137752428754791</v>
+        <v>0.8998533373635893</v>
       </c>
       <c r="E14" t="n" s="747">
-        <v>0.3435004999274845</v>
+        <v>0.3681383941373736</v>
       </c>
       <c r="F14" t="n" s="748">
-        <v>4.709073653530398</v>
+        <v>4.661000329460257</v>
       </c>
       <c r="G14" t="n" s="749">
-        <v>0.044756667896620465</v>
+        <v>0.05045023568256584</v>
       </c>
       <c r="H14" t="n" s="750">
-        <v>0.04427126980248241</v>
+        <v>0.06585350012666354</v>
       </c>
       <c r="I14" t="n" s="751">
-        <v>0.3088198240104121</v>
+        <v>0.2993484352550019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="739">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="744">
-        <v>0.8375043713936002</v>
+        <v>0.7934368590682683</v>
       </c>
       <c r="C15" t="n" s="745">
-        <v>0.8358288771525935</v>
+        <v>0.8250584319472883</v>
       </c>
       <c r="D15" t="n" s="746">
-        <v>0.9194347456346409</v>
+        <v>0.9053650485450812</v>
       </c>
       <c r="E15" t="n" s="747">
-        <v>0.3613037450465164</v>
+        <v>0.37088095776328467</v>
       </c>
       <c r="F15" t="n" s="748">
-        <v>5.0912052171896205</v>
+        <v>4.716194333519922</v>
       </c>
       <c r="G15" t="n" s="749">
-        <v>0.04146041772351892</v>
+        <v>0.05075339690963368</v>
       </c>
       <c r="H15" t="n" s="750">
-        <v>0.05294621528030091</v>
+        <v>0.06571518842695015</v>
       </c>
       <c r="I15" t="n" s="751">
-        <v>0.3108731380896691</v>
+        <v>0.29687505954419297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="739">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n" s="744">
-        <v>0.8459778748975689</v>
+        <v>0.7946632802973346</v>
       </c>
       <c r="C16" t="n" s="745">
-        <v>0.8458659235020419</v>
+        <v>0.829046068700731</v>
       </c>
       <c r="D16" t="n" s="746">
-        <v>0.92013536253046</v>
+        <v>0.9305038360993512</v>
       </c>
       <c r="E16" t="n" s="747">
-        <v>0.37879015620125744</v>
+        <v>0.37740909236524195</v>
       </c>
       <c r="F16" t="n" s="748">
-        <v>5.487857991696264</v>
+        <v>4.849529124015392</v>
       </c>
       <c r="G16" t="n" s="749">
-        <v>0.03950352625030062</v>
+        <v>0.050744720425346904</v>
       </c>
       <c r="H16" t="n" s="750">
-        <v>0.04519389361472037</v>
+        <v>0.07706974880835032</v>
       </c>
       <c r="I16" t="n" s="751">
-        <v>0.3108731380896691</v>
+        <v>0.3177212596165333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="739">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="744">
-        <v>0.8258265197298257</v>
+        <v>0.8074412602828108</v>
       </c>
       <c r="C17" t="n" s="745">
-        <v>0.8262974286900502</v>
+        <v>0.8360126662526103</v>
       </c>
       <c r="D17" t="n" s="746">
-        <v>0.8989797187240787</v>
+        <v>0.935852961063881</v>
       </c>
       <c r="E17" t="n" s="747">
-        <v>0.3457860377073218</v>
+        <v>0.389221217910839</v>
       </c>
       <c r="F17" t="n" s="748">
-        <v>4.756967167835583</v>
+        <v>5.098031946421096</v>
       </c>
       <c r="G17" t="n" s="749">
-        <v>0.044709535736251436</v>
+        <v>0.04714799577671732</v>
       </c>
       <c r="H17" t="n" s="750">
-        <v>0.04880997150453853</v>
+        <v>0.07288660745707104</v>
       </c>
       <c r="I17" t="n" s="751">
-        <v>0.2827805659686935</v>
+        <v>0.3177212596165333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="739">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="744">
-        <v>0.8247673863771918</v>
+        <v>0.7813079043702263</v>
       </c>
       <c r="C18" t="n" s="745">
-        <v>0.8252294662288384</v>
+        <v>0.8163300340568294</v>
       </c>
       <c r="D18" t="n" s="746">
-        <v>0.8980794946692865</v>
+        <v>0.9054626726821814</v>
       </c>
       <c r="E18" t="n" s="747">
-        <v>0.34410881543597654</v>
+        <v>0.3571482218499367</v>
       </c>
       <c r="F18" t="n" s="748">
-        <v>4.721788326797498</v>
+        <v>4.444548295443199</v>
       </c>
       <c r="G18" t="n" s="749">
-        <v>0.04494905113522024</v>
+        <v>0.05352876587548769</v>
       </c>
       <c r="H18" t="n" s="750">
-        <v>0.04889784691319905</v>
+        <v>0.06994781651438015</v>
       </c>
       <c r="I18" t="n" s="751">
-        <v>0.2827805659686935</v>
+        <v>0.29687505954419297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="739">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="744">
-        <v>0.8429792571356297</v>
+        <v>0.7876115900067995</v>
       </c>
       <c r="C19" t="n" s="745">
-        <v>0.8424936074312535</v>
+        <v>0.8221004731992048</v>
       </c>
       <c r="D19" t="n" s="746">
-        <v>0.9414101456134603</v>
+        <v>0.9023814471617265</v>
       </c>
       <c r="E19" t="n" s="747">
-        <v>0.372776346656579</v>
+        <v>0.36614335991200836</v>
       </c>
       <c r="F19" t="n" s="748">
-        <v>5.3489486597411044</v>
+        <v>4.621150421157447</v>
       </c>
       <c r="G19" t="n" s="749">
-        <v>0.04076075706049303</v>
+        <v>0.052267358306246126</v>
       </c>
       <c r="H19" t="n" s="750">
-        <v>0.058704274087913115</v>
+        <v>0.06418252162098693</v>
       </c>
       <c r="I19" t="n" s="751">
-        <v>0.3128665317757853</v>
+        <v>0.29687505954419297</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.8507809515725139</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.8484979850860493</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.9417599125955972</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.38358580558179095</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>5.600572279965877</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.038692017574341875</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.05541983968320973</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.31640687456261374</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7685,359 +7658,380 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="755">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="769">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="769">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="769">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="769">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="769">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="769">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="769">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="769">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="769">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="769">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="769">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="769">
-        <v>10</v>
+      <c r="A24" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="770">
+        <v>34.0</v>
+      </c>
+      <c r="C24" t="n" s="771">
+        <v>0.7989046797167468</v>
+      </c>
+      <c r="D24" t="n" s="772">
+        <v>0.8145218259059217</v>
+      </c>
+      <c r="E24" t="n" s="773">
+        <v>0.844304617297097</v>
+      </c>
+      <c r="F24" t="n" s="774">
+        <v>0.7806141033378998</v>
+      </c>
+      <c r="G24" t="n" s="775">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="H24" t="n" s="776">
+        <v>0.35949062795357095</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="765">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="770">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C25" t="n" s="771">
-        <v>0.7066302608515131</v>
+        <v>0.8124901613286031</v>
       </c>
       <c r="D25" t="n" s="772">
-        <v>0.7136027825471507</v>
+        <v>0.8258347716523267</v>
       </c>
       <c r="E25" t="n" s="773">
-        <v>0.7059074144366357</v>
+        <v>0.8566860444081308</v>
       </c>
       <c r="F25" t="n" s="774">
-        <v>0.6243052846317739</v>
+        <v>0.7122605865568209</v>
       </c>
       <c r="G25" t="n" s="775">
-        <v>3.2</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H25" t="n" s="776">
-        <v>1.3460180927024543</v>
+        <v>1.6646154935999415</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="765">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="770">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C26" t="n" s="771">
-        <v>0.6742733558903334</v>
+        <v>0.825258057545995</v>
       </c>
       <c r="D26" t="n" s="772">
-        <v>0.6819508901253856</v>
+        <v>0.835693973532229</v>
       </c>
       <c r="E26" t="n" s="773">
-        <v>0.6663100074884662</v>
+        <v>0.8647365940444295</v>
       </c>
       <c r="F26" t="n" s="774">
-        <v>0.5881982239529039</v>
+        <v>0.7292685461485058</v>
       </c>
       <c r="G26" t="n" s="775">
-        <v>3.7714285714285714</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H26" t="n" s="776">
-        <v>1.3080230769171846</v>
+        <v>1.6827212490900083</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="765">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n" s="770">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C27" t="n" s="771">
-        <v>0.7748706344896715</v>
+        <v>0.5652417394015473</v>
       </c>
       <c r="D27" t="n" s="772">
-        <v>0.7684392157501994</v>
+        <v>0.581407275102595</v>
       </c>
       <c r="E27" t="n" s="773">
-        <v>0.7738631950071921</v>
+        <v>0.5553319043906657</v>
       </c>
       <c r="F27" t="n" s="774">
-        <v>0.700604258653074</v>
+        <v>0.4364447194911671</v>
       </c>
       <c r="G27" t="n" s="775">
-        <v>3.1142857142857143</v>
+        <v>3.2941176470588234</v>
       </c>
       <c r="H27" t="n" s="776">
-        <v>1.4707226829297335</v>
+        <v>1.2438798481560995</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="765">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n" s="770">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C28" t="n" s="771">
-        <v>0.7255934061784562</v>
+        <v>0.5444106154733402</v>
       </c>
       <c r="D28" t="n" s="772">
-        <v>0.7163351517975133</v>
+        <v>0.5683219478106795</v>
       </c>
       <c r="E28" t="n" s="773">
-        <v>0.7163842319268706</v>
+        <v>0.536393338567018</v>
       </c>
       <c r="F28" t="n" s="774">
-        <v>0.6212923307062803</v>
+        <v>0.42335996907749734</v>
       </c>
       <c r="G28" t="n" s="775">
-        <v>3.6285714285714286</v>
+        <v>3.8823529411764706</v>
       </c>
       <c r="H28" t="n" s="776">
-        <v>1.7164552098423536</v>
+        <v>1.1485090699593827</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="765">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n" s="770">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C29" t="n" s="771">
-        <v>0.6054400292876391</v>
+        <v>0.5483246310448499</v>
       </c>
       <c r="D29" t="n" s="772">
-        <v>0.6174617689809612</v>
+        <v>0.5371748936219505</v>
       </c>
       <c r="E29" t="n" s="773">
-        <v>0.5887879017623516</v>
+        <v>0.45085650832205676</v>
       </c>
       <c r="F29" t="n" s="774">
-        <v>0.5007978636219451</v>
+        <v>0.4141921793171952</v>
       </c>
       <c r="G29" t="n" s="775">
-        <v>1.9714285714285715</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="H29" t="n" s="776">
-        <v>1.382361880893675</v>
+        <v>1.2641357584081998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="765">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n" s="770">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C30" t="n" s="771">
-        <v>0.5065432236624715</v>
+        <v>0.5124904776899778</v>
       </c>
       <c r="D30" t="n" s="772">
-        <v>0.5203479780607839</v>
+        <v>0.48081684696916366</v>
       </c>
       <c r="E30" t="n" s="773">
-        <v>0.4909634262271736</v>
+        <v>0.37615983539346665</v>
       </c>
       <c r="F30" t="n" s="774">
-        <v>0.39337271009140756</v>
+        <v>0.3407628702596952</v>
       </c>
       <c r="G30" t="n" s="775">
-        <v>1.5714285714285714</v>
+        <v>1.9411764705882353</v>
       </c>
       <c r="H30" t="n" s="776">
-        <v>1.31251250494243</v>
+        <v>1.5163987736218039</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="765">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n" s="770">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C31" t="n" s="771">
-        <v>0.725012608566188</v>
+        <v>0.6497739161217643</v>
       </c>
       <c r="D31" t="n" s="772">
-        <v>0.7036420247672073</v>
+        <v>0.633843616056354</v>
       </c>
       <c r="E31" t="n" s="773">
-        <v>0.7242567247601274</v>
+        <v>0.6018490164240209</v>
       </c>
       <c r="F31" t="n" s="774">
-        <v>0.6258282333115669</v>
+        <v>0.5217988388212371</v>
       </c>
       <c r="G31" t="n" s="775">
-        <v>0.6571428571428571</v>
+        <v>2.0</v>
       </c>
       <c r="H31" t="n" s="776">
-        <v>1.6439346119609994</v>
+        <v>1.3926212476455828</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="765">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n" s="770">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C32" t="n" s="771">
-        <v>0.7339523839018193</v>
+        <v>0.6044209683978483</v>
       </c>
       <c r="D32" t="n" s="772">
-        <v>0.712956767028768</v>
+        <v>0.5909259880144255</v>
       </c>
       <c r="E32" t="n" s="773">
-        <v>0.7339516854769852</v>
+        <v>0.5631501289213915</v>
       </c>
       <c r="F32" t="n" s="774">
-        <v>0.6359525674959142</v>
+        <v>0.4733652045609057</v>
       </c>
       <c r="G32" t="n" s="775">
-        <v>0.6571428571428571</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="H32" t="n" s="776">
-        <v>1.6617293816428491</v>
+        <v>1.3284223283101428</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>35.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.5345005822822264</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.5537467033673962</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.4640165029574788</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.4303259809498813</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>0.8857142857142857</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.2549063375273817</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>35.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.48880392919900395</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.493714514673339</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.4065875006064773</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.35498894502306355</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>1.9142857142857144</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>1.5023790657297036</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="780">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="794">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="794">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="794">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="794">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="794">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="794">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="794">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="795">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="C37" t="n" s="796">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="D37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="794">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="794">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="794">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="794">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="794">
-        <v>43</v>
+      <c r="A38" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="795">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="C38" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n" s="799">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="G38" t="n" s="800">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="H38" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="790">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n" s="795">
-        <v>0.02857142857142857</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C39" t="n" s="796">
-        <v>0.17142857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="D39" t="n" s="797">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="798">
-        <v>0.2857142857142857</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="F39" t="n" s="799">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="800">
-        <v>0.11428571428571428</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="H39" t="n" s="801">
         <v>0.0</v>
@@ -8045,25 +8039,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="790">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n" s="795">
-        <v>0.02857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="C40" t="n" s="796">
-        <v>0.02857142857142857</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="D40" t="n" s="797">
-        <v>0.11428571428571428</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="798">
-        <v>0.17142857142857143</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="F40" t="n" s="799">
-        <v>0.2857142857142857</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="G40" t="n" s="800">
-        <v>0.37142857142857144</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="H40" t="n" s="801">
         <v>0.0</v>
@@ -8071,25 +8065,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="790">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n" s="795">
-        <v>0.11428571428571428</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n" s="796">
-        <v>0.05714285714285714</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="D41" t="n" s="797">
-        <v>0.02857142857142857</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E41" t="n" s="798">
-        <v>0.3142857142857143</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="F41" t="n" s="799">
-        <v>0.37142857142857144</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="G41" t="n" s="800">
-        <v>0.11428571428571428</v>
+        <v>0.38235294117647056</v>
       </c>
       <c r="H41" t="n" s="801">
         <v>0.0</v>
@@ -8097,25 +8091,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="790">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n" s="795">
-        <v>0.11428571428571428</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C42" t="n" s="796">
-        <v>0.02857142857142857</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="D42" t="n" s="797">
-        <v>0.05714285714285714</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E42" t="n" s="798">
-        <v>0.2</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="F42" t="n" s="799">
-        <v>0.11428571428571428</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="G42" t="n" s="800">
-        <v>0.4857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="801">
         <v>0.0</v>
@@ -8123,22 +8117,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="790">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n" s="795">
-        <v>0.22857142857142856</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="C43" t="n" s="796">
-        <v>0.08571428571428572</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="D43" t="n" s="797">
-        <v>0.34285714285714286</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="E43" t="n" s="798">
-        <v>0.17142857142857143</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="F43" t="n" s="799">
-        <v>0.17142857142857143</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="G43" t="n" s="800">
         <v>0.0</v>
@@ -8149,22 +8143,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="790">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n" s="795">
-        <v>0.3142857142857143</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="C44" t="n" s="796">
-        <v>0.11428571428571428</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="D44" t="n" s="797">
-        <v>0.34285714285714286</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="E44" t="n" s="798">
-        <v>0.14285714285714285</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="F44" t="n" s="799">
-        <v>0.08571428571428572</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="G44" t="n" s="800">
         <v>0.0</v>
@@ -8175,105 +8169,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="790">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n" s="795">
-        <v>0.8571428571428571</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="C45" t="n" s="796">
-        <v>0.0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D45" t="n" s="797">
-        <v>0.0</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="E45" t="n" s="798">
-        <v>0.0</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="F45" t="n" s="799">
-        <v>0.05714285714285714</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="G45" t="n" s="800">
-        <v>0.08571428571428572</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.6</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.2</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
